--- a/BezvizSystem.Web/App_Data/templateVisitor.xlsx
+++ b/BezvizSystem.Web/App_Data/templateVisitor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\BezvizSystem_2_0\BezvizSystem.Web\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\BezvizSystem_2_0\02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Приложение 1</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>канал“ и прилегающих к нему территорий</t>
-  </si>
-  <si>
-    <t>Штрих-код</t>
   </si>
   <si>
     <t xml:space="preserve">Сведения о туристе (экскурсанте): </t>
@@ -311,6 +308,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -318,34 +321,28 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,22 +626,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:Q43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="2.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="1.21875" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.21875" style="1" customWidth="1"/>
@@ -680,109 +677,109 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -804,18 +801,16 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="10"/>
       <c r="J14" s="14"/>
       <c r="K14" s="3"/>
@@ -827,20 +822,20 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="J15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="J15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="14"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -859,28 +854,28 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -899,24 +894,24 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="B19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
@@ -937,63 +932,63 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="23" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="23" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="20"/>
+      <c r="B25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="9"/>
@@ -1001,7 +996,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="17"/>
       <c r="K26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="9"/>
@@ -1009,12 +1004,12 @@
       <c r="O26" s="11"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1033,15 +1028,15 @@
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
+      <c r="K28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="14"/>
@@ -1060,28 +1055,28 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="B31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
@@ -1098,41 +1093,41 @@
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="27"/>
       <c r="Q32" s="28"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-    </row>
-    <row r="35" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="18"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -1142,19 +1137,19 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="19"/>
       <c r="J36" s="12"/>
       <c r="K36" s="13"/>
@@ -1166,17 +1161,17 @@
       <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
+      <c r="I37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
     </row>
     <row r="38" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
@@ -1197,24 +1192,24 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
+      <c r="B39" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
@@ -1235,65 +1230,47 @@
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="43" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-    </row>
-    <row r="43" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A12:Q12"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="K28:Q28"/>
+  <mergeCells count="24">
     <mergeCell ref="I37:Q37"/>
     <mergeCell ref="B39:Q39"/>
     <mergeCell ref="B43:Q43"/>
@@ -1301,8 +1278,25 @@
     <mergeCell ref="B34:Q34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A11:Q11"/>
+    <mergeCell ref="A12:Q12"/>
   </mergeCells>
-  <pageMargins left="0.82677165354330717" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BezvizSystem.Web/App_Data/templateVisitor.xlsx
+++ b/BezvizSystem.Web/App_Data/templateVisitor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\BezvizSystem_2_0\02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\BezvizSystem_2_0\BezvizSystem.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Приложение 1</t>
-  </si>
-  <si>
-    <t>к постановлению Совета Министров</t>
-  </si>
-  <si>
-    <t>Республики Беларусь</t>
-  </si>
-  <si>
-    <t>28.12.2017 № 1017</t>
-  </si>
-  <si>
-    <t>Форма</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ДОКУМЕНТ,</t>
   </si>
@@ -311,14 +296,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -335,14 +326,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -649,67 +634,156 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="5" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I3" s="1" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I4" s="1" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q6" s="1" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -718,32 +792,30 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -760,103 +832,86 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+    <row r="12" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24" t="s">
+      <c r="B13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="J15" s="22" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="17" spans="2:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
-        <v>12</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -874,201 +929,199 @@
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
     </row>
-    <row r="18" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+    </row>
+    <row r="19" spans="2:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="2:17" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="B20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="23" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="2:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="P26" s="29"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="B26" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="30" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="2:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -1078,223 +1131,128 @@
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-    </row>
-    <row r="35" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="2:17" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="22" t="s">
+    <row r="32" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-    </row>
-    <row r="40" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-    </row>
-    <row r="43" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="2:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="37" spans="2:17" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I37:Q37"/>
-    <mergeCell ref="B39:Q39"/>
-    <mergeCell ref="B43:Q43"/>
-    <mergeCell ref="B41:Q41"/>
-    <mergeCell ref="B34:Q34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B15:Q15"/>
     <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A11:Q11"/>
-    <mergeCell ref="A12:Q12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="B33:Q33"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B35:Q35"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.39370078740157483" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
